--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed2/result_data_RandomForest.xlsx
@@ -474,12 +474,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.0178</v>
+        <v>12.0599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.26510000000002</v>
+        <v>-21.37310000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.97859999999999</v>
+        <v>13.1298</v>
       </c>
     </row>
     <row r="6">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.56649999999998</v>
+        <v>-20.57909999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.39400000000002</v>
+        <v>-21.28120000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.32770000000003</v>
+        <v>-21.40160000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.37940000000003</v>
+        <v>-22.43880000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
